--- a/results/s_course.txt_50_yaw_change.xlsx
+++ b/results/s_course.txt_50_yaw_change.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\artyom\Documents\Projects\autonomous_vehicles1\path-planning-simulation\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEC97109-D056-469F-BCA8-1B7247CAD394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BBD7C9-6FD1-49BE-8A77-3B26AE4428ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s_course.txt_50_yaw_change" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -579,6 +582,4019 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Yaw</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> change at 50 km/h</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw_change!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$B$2:$B$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>-2.6896385522547502E-16</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>1.8087683606278701E-19</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="0.00E+00">
+                  <c:v>1.80633722035984E-19</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.00E+00">
+                  <c:v>1.80391097828941E-19</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="0.00E+00">
+                  <c:v>-6.3243139514870901E-19</c:v>
+                </c:pt>
+                <c:pt idx="15" formatCode="0.00E+00">
+                  <c:v>1.8099857717098101E-19</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="0.00E+00">
+                  <c:v>1.8075521773951E-19</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="0.00E+00">
+                  <c:v>1.80512348787287E-19</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="0.00E+00">
+                  <c:v>1.80269968996963E-19</c:v>
+                </c:pt>
+                <c:pt idx="19" formatCode="0.00E+00">
+                  <c:v>-6.3200637347374699E-19</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="0.00E+00">
+                  <c:v>1.80876836062836E-19</c:v>
+                </c:pt>
+                <c:pt idx="21" formatCode="0.00E+00">
+                  <c:v>1.8063372203588501E-19</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="0.00E+00">
+                  <c:v>1.80391097828941E-19</c:v>
+                </c:pt>
+                <c:pt idx="23" formatCode="0.00E+00">
+                  <c:v>-6.3243139514870901E-19</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="0.00E+00">
+                  <c:v>1.8099857717103E-19</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.5229099808916695E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.56631051035409E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8085858288635698E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5371811319768703E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2529733500272999E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7293143095305997E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.0223013903785302E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9997388820067803E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.73835899661638E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9037134628393906E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.7590869452937499E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.8693731262595902E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.7907540573893801E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.19564327265964E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-7.0561091203503699E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1.1867771567644099E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-1.5396872277441E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-1.8668152420074399E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-2.1402082363496E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-2.36379549585942E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-2.54109308489632E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-2.7639702544946999E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-2.7556365141336098E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-2.9025583690634502E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-2.9053822552227101E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-2.87336941912857E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-2.8104133003537399E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-2.7205568005713301E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-2.6889695437663799E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-2.4578364096279399E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.3855424827878401E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.1417831678886799E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.04400594899477E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.85988458235226E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.6784964051671201E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.4574762807784801E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.34677069855785E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.18462995834987E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.03246559781299E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-8.9097870190462392E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-7.3783526887551704E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-6.48971633996404E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-5.3933378834437598E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-4.4063246586952898E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-7.2528497013495397E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-8.3673662990798106E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-2.8399206087391899E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-3.9478584626816797E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-4.7314626206263699E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-5.2742732915833201E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-5.63499022977123E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-5.8532411126547897E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-5.9551753371180398E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-8.6696553461494102E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-5.0357200920229703E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-3.3073775523346997E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-1.4931202121746E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-4.4328222692699903E-3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.00907765588576E-3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4830908788847692E-3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.31284832210544E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.6468028387156899E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.96158336554168E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.2238145777437102E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.4373269744328699E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.6054829739790501E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.7311617755604999E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.90982555309626E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.9432029284724201E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.8455424792373001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.9178872321486801E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.93680375596291E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.7318044262674101E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.6950754727993999E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4588609353543799E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.38238162781295E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.1351290176630702E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.0341510643559501E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.8475633162754398E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.6642746200984101E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.48676198710693E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.2776113209541201E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.16828898831945E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.0158483832760501E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>8.7435714621118803E-3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7.4414358256568803E-3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>6.2527325329545897E-3</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.0214105250087401E-3</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.26525510328786E-3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2.5374700415109201E-3</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-1.1410884110409899E-4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-1.3786495405751099E-4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-1.6989984948561601E-4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-2.1456588216993701E-4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-2.7950837363502102E-4</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-3.7918839854520799E-4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-5.4375634687005899E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2D15-498B-ADE4-715556E6FBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw_change!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$C$2:$C$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.00421037530082E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>4.1336745441971197E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.16983776993793201</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.142945358666969</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.11484512313531001</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>-4.85631998172847E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.118092413260192</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>8.4601405888722003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>5.7503487365298402E-2</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.104799059518336</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>-0.16315332087491299</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>-0.1142512663046</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>-8.7008773924962299E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>-6.5670081878400802E-2</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>-5.2725239230154597E-2</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>-4.3641716461303E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>-3.4749821516807E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>-3.0260783705763201E-2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>-2.3203510620900002E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>-2.1356576451596301E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>-1.79952842846068E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>-1.53824965420602E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>-1.32952761095191E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>-1.15882410662323E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>-1.0164249525376E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>-8.9569366072998705E-3</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>-7.9199618126804608E-3</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>-7.5473095315268602E-3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>-5.9826883607371597E-3</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>-5.3744682750258002E-3</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>-4.8226420056238497E-3</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>-4.3228821931546001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>-4.1697038016576399E-3</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>-3.32181217475392E-3</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>-3.0018037878858299E-3</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>-2.7051816426726201E-3</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-2.6221431156679201E-3</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-2.09301580248846E-3</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-1.89607851582985E-3</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-1.71188762223103E-3</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-1.6620651232069801E-3</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-1.3275780018436401E-3</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-1.2036329586181901E-3</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-1.6032837952071101E-3</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-0.22667888573549799</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.139158786749665</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>1.25432437462472E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-0.12879588782636001</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-9.7254637565221499E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-6.9127341140265197E-2</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-4.7452257432242899E-2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-9.8180060466580399E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>1.29071339066445E-2</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.15774257720354201</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.11094785044597701</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>8.5428548705208204E-2</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>6.4747974665424202E-2</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>5.2122146642664603E-2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>4.3225422792192797E-2</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>3.4453516034145801E-2</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>2.8356331247938699E-2</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>2.5385867490567701E-2</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>2.1051044732122E-2</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>1.7779585381124001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>1.5231581073160499E-2</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>1.3191618742774899E-2</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>1.1519263743792099E-2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>1.01207591852029E-2</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>8.9321277986346894E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>7.9087528506880302E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>7.01880043154747E-3</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>6.2389939529963996E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>5.9733865874582303E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>4.7436544669915296E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>4.2709432232721899E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>3.8387067033567E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>3.4450731434271702E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>3.3268740924606698E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>2.65125552606334E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>2.3972101160742499E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>2.1613199250531201E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>1.9441026268271001E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>1.88106277614109E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>1.5002153475879799E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>1.3576746065484199E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>1.22483970705345E-3</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>1.5337241082955999E-3</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>2.9560628595942601E-3</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>1.80393042149705E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2D15-498B-ADE4-715556E6FBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw_change!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stanley with lookahead</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$D$2:$D$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.00421037530082E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="General">
+                  <c:v>0.12892852673879701</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.14770334306496599</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>-6.4064704753006296E-3</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.12927506609884101</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>9.3848064150365396E-2</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>6.6099461827626799E-2</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>4.6888810512881497E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>3.5253735715776002E-2</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>2.90229092203316E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.114784716543161</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>-9.6184752832834106E-2</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>-0.14222153339847299</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>-8.5315629595248105E-2</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>-6.5010926319536699E-2</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>-5.4001818881258899E-2</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>-4.0442266739620203E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>-3.8030965664113202E-2</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>-2.9741718381314501E-2</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>-2.6698048120373599E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>-2.1771229412141001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>-2.02520158739979E-2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>-1.67203837687274E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>-1.4238614744265601E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>-1.24113569163038E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>-1.10018447437349E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>-1.10424799343092E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>-9.39271588061108E-3</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>-7.1760735004767701E-3</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>-7.7166226417430999E-3</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>-6.7633560033667E-3</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>-6.0095159471582199E-3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>-5.3936583216688998E-3</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>-4.8759180866697598E-3</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>-4.4301937347571898E-3</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>-4.03919886032877E-3</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>-3.6913109490123801E-3</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>-3.83418262396879E-3</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>-2.8653402335418001E-3</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>-2.69506181585971E-3</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-2.5163843505995299E-3</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-2.3374668471175201E-3</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-2.1633152940234799E-3</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-2.2702911537004402E-3</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-0.225770132761621</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-0.125586390988039</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>2.61493039539063E-2</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-0.121081339568317</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-8.7395736475873106E-2</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-6.1471809385204502E-2</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>-4.3932683199522801E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-3.3547908792576901E-2</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-0.134903438006789</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>7.9311808321428506E-2</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.131356058825703</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>9.0046235959571203E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>6.7330030254620393E-2</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>5.5883418902755597E-2</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>4.8205630252415303E-2</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>3.6490128701693901E-2</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>3.2056831147752998E-2</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>2.59991697562377E-2</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>2.4075557770682599E-2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>2.1853220590260802E-2</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>1.60771004727964E-2</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>1.5919740140550798E-2</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>1.4999803023901401E-2</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>1.10519182031405E-2</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>9.9810049019874794E-3</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>1.0184398581831299E-2</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>8.7262298811079091E-3</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>6.69071298079106E-3</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>7.2422911067987301E-3</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>6.3638950503821703E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>5.6648794258064E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>5.0907623996404097E-3</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>4.6060626167261703E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>4.1874531867298797E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>3.8194125367971899E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>3.4914475210411698E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>3.6284188525665499E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>2.7108241183556401E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>2.5502939661164502E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>2.3816717695927798E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>2.2127314496233402E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>2.0482390914779501E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>3.9665527389532301E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>7.4368116632223804E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>4.2281048045406397E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>2.4983400892980199E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>1.5296082032645599E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2D15-498B-ADE4-715556E6FBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>s_course.txt_50_yaw_change!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hybrid Stanley and Pure Pursuit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$A$2:$A$123</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>8.1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>8.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>8.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>8.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>9.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>9.6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>9.6999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>9.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>10.1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>10.3</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>10.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>10.6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>10.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>10.9</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>11.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>11.6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>11.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>11.8</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>11.9</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>12.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>s_course.txt_50_yaw_change!$E$2:$E$123</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="122"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.00421037530082E-16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.22464679914736E-17</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.22464679914735E-17</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>4.1336745441971197E-2</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.16983776993793201</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.142945358666969</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.11484512313531001</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>-4.85631998172847E-2</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.118092413260192</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>8.4601405888722003E-2</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>5.7503487365298402E-2</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.104799059518336</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>-0.16315332087491299</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>-0.1142512663046</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="General">
+                  <c:v>-8.7008773924962299E-2</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>-6.5670081878400802E-2</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>-5.2725239230154597E-2</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>-4.3641716461303E-2</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>-3.4749821516807E-2</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>-3.0260783705763201E-2</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="General">
+                  <c:v>-2.3203510620900002E-2</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="General">
+                  <c:v>-2.1356576451596301E-2</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="General">
+                  <c:v>-1.79952842846068E-2</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="General">
+                  <c:v>-1.53824965420602E-2</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="General">
+                  <c:v>-1.32952761095191E-2</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="General">
+                  <c:v>-1.15882410662323E-2</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="General">
+                  <c:v>-1.0164249525376E-2</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="General">
+                  <c:v>-8.9569366072998705E-3</c:v>
+                </c:pt>
+                <c:pt idx="56" formatCode="General">
+                  <c:v>-7.9199618126804608E-3</c:v>
+                </c:pt>
+                <c:pt idx="57" formatCode="General">
+                  <c:v>-7.5473095315268602E-3</c:v>
+                </c:pt>
+                <c:pt idx="58" formatCode="General">
+                  <c:v>-5.9826883607371597E-3</c:v>
+                </c:pt>
+                <c:pt idx="59" formatCode="General">
+                  <c:v>-5.3744682750258002E-3</c:v>
+                </c:pt>
+                <c:pt idx="60" formatCode="General">
+                  <c:v>-4.8226420056238497E-3</c:v>
+                </c:pt>
+                <c:pt idx="61" formatCode="General">
+                  <c:v>-4.3228821931546001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62" formatCode="General">
+                  <c:v>-4.1697038016576399E-3</c:v>
+                </c:pt>
+                <c:pt idx="63" formatCode="General">
+                  <c:v>-3.32181217475392E-3</c:v>
+                </c:pt>
+                <c:pt idx="64" formatCode="General">
+                  <c:v>-3.0018037878858299E-3</c:v>
+                </c:pt>
+                <c:pt idx="65" formatCode="General">
+                  <c:v>-2.7051816426726201E-3</c:v>
+                </c:pt>
+                <c:pt idx="66" formatCode="General">
+                  <c:v>-2.6221431156679201E-3</c:v>
+                </c:pt>
+                <c:pt idx="67" formatCode="General">
+                  <c:v>-2.09301580248846E-3</c:v>
+                </c:pt>
+                <c:pt idx="68" formatCode="General">
+                  <c:v>-1.89607851582985E-3</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>-1.71188762223103E-3</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>-1.6620651232069801E-3</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>-1.3275780018436401E-3</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>-1.2036329586181901E-3</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>-1.6032837952071101E-3</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>-0.22667888573549799</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>-0.139158786749665</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>1.25432437462472E-2</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>-0.12879588782636001</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>-9.7254637565221499E-2</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>-6.9127341140265197E-2</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>-4.7452257432242899E-2</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>-9.8180060466580399E-2</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>1.29071339066445E-2</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.15774257720354201</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.11094785044597701</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>8.5428548705208204E-2</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>6.4747974665424202E-2</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>5.2122146642664603E-2</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>4.3225422792192797E-2</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>3.4453516034145801E-2</c:v>
+                </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>2.8356331247938699E-2</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>2.5385867490567701E-2</c:v>
+                </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>2.1051044732122E-2</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>1.7779585381124001E-2</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>1.5231581073160499E-2</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>1.3191618742774899E-2</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>1.1519263743792099E-2</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>1.01207591852029E-2</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>8.9321277986346894E-3</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>7.9087528506880302E-3</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>7.01880043154747E-3</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>6.2389939529963996E-3</c:v>
+                </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>5.9733865874582303E-3</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>4.7436544669915296E-3</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>4.2709432232721899E-3</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>3.8387067033567E-3</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>3.4450731434271702E-3</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>3.3268740924606698E-3</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>2.65125552606334E-3</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>2.3972101160742499E-3</c:v>
+                </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>2.1613199250531201E-3</c:v>
+                </c:pt>
+                <c:pt idx="112" formatCode="General">
+                  <c:v>1.9441026268271001E-3</c:v>
+                </c:pt>
+                <c:pt idx="113" formatCode="General">
+                  <c:v>1.88106277614109E-3</c:v>
+                </c:pt>
+                <c:pt idx="114" formatCode="General">
+                  <c:v>1.5002153475879799E-3</c:v>
+                </c:pt>
+                <c:pt idx="115" formatCode="General">
+                  <c:v>1.3576746065484199E-3</c:v>
+                </c:pt>
+                <c:pt idx="116" formatCode="General">
+                  <c:v>1.22483970705345E-3</c:v>
+                </c:pt>
+                <c:pt idx="117" formatCode="General">
+                  <c:v>1.5337241082955999E-3</c:v>
+                </c:pt>
+                <c:pt idx="118" formatCode="General">
+                  <c:v>1.8461663536638799E-2</c:v>
+                </c:pt>
+                <c:pt idx="119" formatCode="General">
+                  <c:v>-3.78740892166081E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2D15-498B-ADE4-715556E6FBC7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="361193184"/>
+        <c:axId val="361195264"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="361193184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361195264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="361195264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="361193184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1414A7CB-A558-43C6-BDE9-E56645AFE4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="s_course.txt_30_yaw_change"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -875,11 +4891,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A124" sqref="A124:A150"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E123" sqref="A1:E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2950,5 +6966,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>